--- a/Statystyki_2018/Template/oktp_.xlsx
+++ b/Statystyki_2018/Template/oktp_.xlsx
@@ -469,14 +469,14 @@
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
@@ -579,7 +579,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -725,8 +725,23 @@
       <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -778,8 +793,23 @@
       <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -831,8 +861,23 @@
       <c r="P7" s="19">
         <v>0</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -884,8 +929,23 @@
       <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>11444</v>
+      </c>
+      <c r="U8" s="19">
+        <v>11444</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -937,8 +997,23 @@
       <c r="P9" s="19">
         <v>0</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>13363</v>
+      </c>
+      <c r="U9" s="19">
+        <v>13363</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -990,8 +1065,23 @@
       <c r="P10" s="19">
         <v>0</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1043,8 +1133,23 @@
       <c r="P11" s="19">
         <v>0</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1096,8 +1201,23 @@
       <c r="P12" s="19">
         <v>0</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1149,8 +1269,23 @@
       <c r="P13" s="19">
         <v>0</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1202,8 +1337,23 @@
       <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>11444</v>
+      </c>
+      <c r="U14" s="19">
+        <v>11444</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1255,8 +1405,23 @@
       <c r="P15" s="19">
         <v>0</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <v>13363</v>
+      </c>
+      <c r="U15" s="19">
+        <v>13363</v>
+      </c>
+      <c r="V15" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1308,8 +1473,23 @@
       <c r="P16" s="19">
         <v>0</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+      <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1358,16 +1538,34 @@
       <c r="P17" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="Q17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="18" t="s">
         <v>30</v>
       </c>
@@ -1385,14 +1583,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
@@ -1410,14 +1608,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="18" t="s">
         <v>38</v>
       </c>
@@ -1435,14 +1633,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="18" t="s">
         <v>42</v>
       </c>
@@ -1460,16 +1658,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="18" t="s">
         <v>45</v>
       </c>
@@ -1491,10 +1689,10 @@
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="18" t="s">
         <v>51</v>
       </c>
@@ -1516,10 +1714,10 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="18" t="s">
         <v>54</v>
       </c>
@@ -1541,10 +1739,10 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="18" t="s">
         <v>56</v>
       </c>
@@ -1566,10 +1764,10 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="18" t="s">
         <v>60</v>
       </c>
